--- a/static/file/teacher_template.xlsx
+++ b/static/file/teacher_template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44F0A5D-905A-4837-8562-C80ECCA7A352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3979FA-9FF7-4928-BC7C-AB132BBF6899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>性别</t>
   </si>
@@ -77,14 +77,6 @@
   <si>
     <t>授课班级</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wj</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -530,81 +522,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>16</v>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -612,9 +599,9 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -622,9 +609,9 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -632,9 +619,9 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -642,9 +629,9 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -652,9 +639,9 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -662,9 +649,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -672,9 +659,9 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -682,9 +669,9 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -692,9 +679,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -702,9 +689,9 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -712,9 +699,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -722,9 +709,9 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -732,9 +719,9 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -742,9 +729,9 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -752,7 +739,6 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
